--- a/Documents/Experiment-Design/experiment_design.xlsx
+++ b/Documents/Experiment-Design/experiment_design.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\semester3\Project-Module\Using-Image-Processing-for-Autonomous-Illumination-Sensor-Optimization\Documents\Experiment-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CBB982-D934-41F8-B054-FA2B75384622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BFD6ED-6394-4D51-A938-2B2679EA71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63C2CE48-B23F-428E-9F7D-E5F226C3B2C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="program" sheetId="2" r:id="rId1"/>
+    <sheet name="drawing" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ultrasonic sensor</t>
   </si>
@@ -50,18 +51,58 @@
   <si>
     <t>seat</t>
   </si>
+  <si>
+    <t>drawing page</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>1st-case</t>
+  </si>
+  <si>
+    <t>2nd-case</t>
+  </si>
+  <si>
+    <t>empty seat</t>
+  </si>
+  <si>
+    <t>Scenario when recording</t>
+  </si>
+  <si>
+    <t>Person detect</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -85,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -96,6 +137,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,6 +157,1581 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04BA74A-92F2-444E-9842-9AF3DADECB55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1143000"/>
+          <a:ext cx="5305425" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F183B79-98BB-4ACA-A48C-343E2ACD4589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1333500"/>
+          <a:ext cx="3657600" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>640</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> x 840 sq.pixel</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="571500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97282B7-1888-4EB4-AD47-D3CB302B8E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="4295775"/>
+          <a:ext cx="952500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Turn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> on/off Camera</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="828675" cy="571500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4527A4D6-F836-4F59-8954-E609BB29FBD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="4295775"/>
+          <a:ext cx="828675" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>/ Stop Recording</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="571500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80A7CB3-C7A1-4BC3-AF14-110AB7DF9D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="4295775"/>
+          <a:ext cx="990600" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Connect to </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Red</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Pitaya</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3657600" cy="190500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0742372-7708-4CA1-B6C0-3BC80FA926F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="4953000"/>
+          <a:ext cx="3657600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1219200" cy="171450"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67398766-63DF-4E62-8365-FEAB662BFEB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="4972050"/>
+          <a:ext cx="1219200" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Save DIrectory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1219200" cy="171450"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42752831-ED30-4FD6-BD2A-61D67CAE7808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="5353050"/>
+          <a:ext cx="1219200" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Status : Idle</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="828675" cy="571500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C82A58-B1E0-42CD-A219-6E427023445A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="4295775"/>
+          <a:ext cx="828675" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Snapshot</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>605482</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="92" name="Group 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCA46ED-0800-439F-87AA-57DEC8E67833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7150518" y="8405132"/>
+          <a:ext cx="2456125" cy="1419225"/>
+          <a:chOff x="7742979" y="7744239"/>
+          <a:chExt cx="2454608" cy="1419225"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="Graphic 15" descr="Open folder outline">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2C0D5E-59FE-44D0-ABFB-1B235015A0CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8671477" y="7744239"/>
+            <a:ext cx="956842" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="TextBox 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39E4F5B-2C96-41FF-88FC-7CC794C372B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7742979" y="8782464"/>
+            <a:ext cx="2454608" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Empty</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t>-Seat-Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1699</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="Group 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE12AA1-121C-4FBB-8E17-A7F0FD3F407C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9606643" y="8395607"/>
+          <a:ext cx="2450985" cy="1428750"/>
+          <a:chOff x="8056543" y="8696739"/>
+          <a:chExt cx="2454608" cy="1428750"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="Graphic 16" descr="Open folder outline">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B657E0-79DE-4A4F-810F-DBF34C4CADE6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8671477" y="8696739"/>
+            <a:ext cx="956842" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="TextBox 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EBDF34-096E-4B85-9D24-E56954146030}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8056543" y="9744489"/>
+            <a:ext cx="2454608" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Person-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t>Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10C2204-AB71-419E-9639-48332287090A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="1438275"/>
+          <a:ext cx="4876800" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14ECFF11-3B17-4D91-9589-1ECF430127E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="828675" y="1438275"/>
+          <a:ext cx="4876800" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Graphic 25" descr="Office Chair outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0E807D-7C28-4CF6-AFCF-28918F21AE3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13220700" y="1809750"/>
+          <a:ext cx="1219200" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Graphic 30" descr="Male profile outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C354EF3-63C4-4636-A835-B3AFFEFA9319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11401425" y="1819275"/>
+          <a:ext cx="1219200" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09526979-C52D-42B7-B475-AC2092AB6718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="6217340"/>
+          <a:ext cx="1219200" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Program</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600077</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Connector: Elbow 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA32717-DA56-4713-9331-C2F4A3BE101E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="109" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8486776" y="2809875"/>
+          <a:ext cx="1552575" cy="1838324"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Connector: Elbow 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84331FB1-A241-4D52-9240-7FB18BDAAECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="109" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10325100" y="2819400"/>
+          <a:ext cx="1543050" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DD902B-B2DE-4053-A9BD-81DD76766E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="109" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="5457825"/>
+          <a:ext cx="0" cy="759515"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>176672</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Connector: Elbow 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904CC708-8FEF-4E08-A9CB-23AF8AD8B449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9045356" y="7264181"/>
+          <a:ext cx="1231210" cy="1042528"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45358"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>477293</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Connector: Elbow 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEEA5C9-FA8B-4DB4-9D1F-2ED94AECD94F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10114829" y="7237236"/>
+          <a:ext cx="1221685" cy="1086892"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 46102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rectangle 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F5F70D-5A39-4529-AF55-D30667FE48FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="4505325"/>
+          <a:ext cx="1219200" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Camera</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1114,21 +2732,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1D7E30-530D-4C7A-BA0E-137DB41EF95C}">
+  <dimension ref="A1:X7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="23.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="M7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA44C6-5B68-4D48-BABC-D7EE34EF441E}">
-  <dimension ref="F12:L23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="12" spans="7:12">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="7:12">
+    <row r="13" spans="1:12">
       <c r="G13" s="3" t="s">
         <v>2</v>
       </c>

--- a/Documents/Experiment-Design/experiment_design.xlsx
+++ b/Documents/Experiment-Design/experiment_design.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\semester3\Project-Module\Using-Image-Processing-for-Autonomous-Illumination-Sensor-Optimization\Documents\Experiment-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BFD6ED-6394-4D51-A938-2B2679EA71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9131EE0C-0429-4489-82C2-567F8F65F2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63C2CE48-B23F-428E-9F7D-E5F226C3B2C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{63C2CE48-B23F-428E-9F7D-E5F226C3B2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="2" r:id="rId1"/>
-    <sheet name="drawing" sheetId="1" r:id="rId2"/>
+    <sheet name="logics" sheetId="3" r:id="rId2"/>
+    <sheet name="drawing" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ultrasonic sensor</t>
   </si>
@@ -74,6 +75,27 @@
   </si>
   <si>
     <t>Person detect</t>
+  </si>
+  <si>
+    <t>Program Logics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective </t>
+  </si>
+  <si>
+    <t>To train a program for human-no human classification from top-view</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -2735,7 +2757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1D7E30-530D-4C7A-BA0E-137DB41EF95C}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -2782,6 +2804,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE7E135-2CC5-4344-8F2D-172EBE71202B}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA44C6-5B68-4D48-BABC-D7EE34EF441E}">
   <dimension ref="A1:L23"/>
   <sheetViews>

--- a/Documents/Experiment-Design/experiment_design.xlsx
+++ b/Documents/Experiment-Design/experiment_design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\semester3\Project-Module\Using-Image-Processing-for-Autonomous-Illumination-Sensor-Optimization\Documents\Experiment-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\Project-Module\Using-Image-Processing-for-Autonomous-Illumination-Sensor-Optimization\Documents\Experiment-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9131EE0C-0429-4489-82C2-567F8F65F2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6CEAE-2659-41BF-892E-5EC13C057629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{63C2CE48-B23F-428E-9F7D-E5F226C3B2C7}"/>
   </bookViews>
@@ -86,16 +86,16 @@
     <t>To train a program for human-no human classification from top-view</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Background Subtraction</t>
   </si>
   <si>
-    <t>Scenario</t>
+    <t>Training Classification Model</t>
   </si>
   <si>
-    <t>Condition</t>
+    <t>ROI selectable</t>
   </si>
   <si>
-    <t>Remarks</t>
+    <t>click 4 points orderly and calculate a circle from them</t>
   </si>
 </sst>
 </file>
@@ -250,13 +250,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577923</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -273,8 +273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="1333500"/>
-          <a:ext cx="3657600" cy="2667000"/>
+          <a:off x="824074" y="1455506"/>
+          <a:ext cx="3628062" cy="2696966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -836,8 +836,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7150518" y="8405132"/>
-          <a:ext cx="2456125" cy="1419225"/>
+          <a:off x="7133853" y="8495337"/>
+          <a:ext cx="2444658" cy="1436348"/>
           <a:chOff x="7742979" y="7744239"/>
           <a:chExt cx="2454608" cy="1419225"/>
         </a:xfrm>
@@ -970,8 +970,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9606643" y="8395607"/>
-          <a:ext cx="2450985" cy="1428750"/>
+          <a:off x="9578511" y="8485812"/>
+          <a:ext cx="2441812" cy="1445873"/>
           <a:chOff x="8056543" y="8696739"/>
           <a:chExt cx="2454608" cy="1428750"/>
         </a:xfrm>
@@ -1086,7 +1086,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1104,8 +1104,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828675" y="1438275"/>
-          <a:ext cx="4876800" cy="2667000"/>
+          <a:off x="824073" y="1455506"/>
+          <a:ext cx="3660169" cy="2696966"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1141,7 +1141,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1159,8 +1159,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="828675" y="1438275"/>
-          <a:ext cx="4876800" cy="2667000"/>
+          <a:off x="824073" y="1455506"/>
+          <a:ext cx="3660169" cy="2696966"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1750,10 +1750,288 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160533</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3BF364-9FCF-4EAD-A40D-11B3C351EA4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4644775" y="1455506"/>
+          <a:ext cx="1059524" cy="2696966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Classification</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> results in textbox</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Empty Seat </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Human </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00947F9F-9769-0A68-5305-5F20EE235D2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="2667000"/>
+          <a:ext cx="3048000" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E904EF8F-E55F-4BC1-A284-270C15004696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="2667000"/>
+          <a:ext cx="3048000" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78381D32-6104-A44A-6C79-18691D74E944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="3048000"/>
+          <a:ext cx="1828800" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2757,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1D7E30-530D-4C7A-BA0E-137DB41EF95C}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2805,20 +3083,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE7E135-2CC5-4344-8F2D-172EBE71202B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2826,23 +3104,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="15" spans="1:20">
+      <c r="T15" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documents/Experiment-Design/experiment_design.xlsx
+++ b/Documents/Experiment-Design/experiment_design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\Project-Module\Using-Image-Processing-for-Autonomous-Illumination-Sensor-Optimization\Documents\Experiment-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35413947-C971-42C0-AEBA-D04235401535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB8663-CCA1-4991-8DC6-D5DBF71EA9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63C2CE48-B23F-428E-9F7D-E5F226C3B2C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{63C2CE48-B23F-428E-9F7D-E5F226C3B2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ultrasonic sensor</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>STATE DIAGRAM</t>
+  </si>
+  <si>
+    <t>ROI logic creation</t>
   </si>
 </sst>
 </file>
@@ -21793,6 +21796,774 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7912067" cy="4323755"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FD4DFC-1693-42F0-A155-A4E3BCAB791B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2424545" y="17196955"/>
+          <a:ext cx="7912067" cy="4323755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>227157</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>319368</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>29136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Oval 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971FEF5E-E287-4C5E-B6B1-E3AA35085E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3863975" y="17185749"/>
+          <a:ext cx="4941302" cy="4802842"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>425822</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1908057" cy="1905000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Graphic 24" descr="Walk outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D939426C-5361-45A6-A428-79646A408E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2850367" y="15029737"/>
+          <a:ext cx="1908057" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>146100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Arrow: Down 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41976DE7-7929-4B4E-9810-1CF0D39FEBC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19800000">
+          <a:off x="4343808" y="16614250"/>
+          <a:ext cx="1212272" cy="2443305"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> INCOMING</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>567017</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>84807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>567017</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>51612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Arrow: Down 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B8E97C-79E6-4B84-9E96-BFF3BDC08285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12600000">
+          <a:off x="7234517" y="16519762"/>
+          <a:ext cx="1212273" cy="2443305"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> OUTGOING</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1909076" cy="1905000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Graphic 29" descr="Walk outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE09088-4B5B-4D57-BFA3-C2F64556F51D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7856341" y="14910955"/>
+          <a:ext cx="1909076" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7BD792-87E3-4969-B699-565C0FAAEE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5443003" y="18911455"/>
+          <a:ext cx="1818409" cy="605118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>STAY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> STILL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>610027</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36577EC-1373-402B-97CB-9DE048FBBA11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1220055" y="29399073"/>
+          <a:ext cx="2440113" cy="611539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472C4"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Click ROI button</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF7E8CD-7526-465B-A073-F29D5E138D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4270197" y="29399073"/>
+          <a:ext cx="3660168" cy="611539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472C4"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pop up widow with image</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>610027</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE40F73F-6B5C-4E73-88E3-F510973A65D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8540393" y="29399073"/>
+          <a:ext cx="3660168" cy="611539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472C4"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>click on  points</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>610027</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>21403</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B7816D-3E89-4B9A-BF62-4031ADAA02CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12810589" y="29399073"/>
+          <a:ext cx="5511657" cy="611539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472C4"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>close window and return clicked positions</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24305,6 +25076,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="7" idx="7"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -24361,6 +25133,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="7" idx="0"/>
           <a:endCxn id="9" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -24497,6 +25270,590 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F9BA52-E6B1-4301-BFC3-C3164CD21432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10734675" y="6096000"/>
+          <a:ext cx="876300" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 283571"/>
+            <a:gd name="adj4" fmla="val -412831"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>58.52 cm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7686675" cy="4323755"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ABC863-0563-4C71-A623-A105E43A5C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="6096000"/>
+          <a:ext cx="7686675" cy="4323755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2494DC0D-BBEC-48A7-B84C-4A7115817FDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="8362950"/>
+          <a:ext cx="247649" cy="247649"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Callout: Line 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14BDDC4-954F-496D-9546-911CA7BADD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10791825" y="7096125"/>
+          <a:ext cx="619125" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 253571"/>
+            <a:gd name="adj4" fmla="val -692179"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Center</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AF3138-BDD2-4AA1-AE6F-6E5534447B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="6115050"/>
+          <a:ext cx="4914900" cy="4914900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Oval 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C305F888-49C8-426F-AA17-989A3B86F535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="6524625"/>
+          <a:ext cx="3971925" cy="3971925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>97082</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>17217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A87F7B4-A049-4A2E-BEB0-E60A432BE749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6450257" y="7086600"/>
+          <a:ext cx="1322143" cy="1312617"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25047189-DCC9-478E-8F32-AA261CCC59BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6362700" y="6115050"/>
+          <a:ext cx="66675" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Callout: Line 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EB110E-99EB-4944-8910-3543AF1E31FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10734675" y="5334000"/>
+          <a:ext cx="876300" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 288571"/>
+            <a:gd name="adj4" fmla="val -493266"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>94.8 cm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Callout: Line 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48462815-31E3-44FC-A527-E583398114EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24860,7 +26217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1D7E30-530D-4C7A-BA0E-137DB41EF95C}">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P99" sqref="P99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -24923,10 +26282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE7E135-2CC5-4344-8F2D-172EBE71202B}">
-  <dimension ref="A1:T134"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z138" sqref="Z138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25029,6 +26388,11 @@
         <v>42</v>
       </c>
     </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25040,7 +26404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA44C6-5B68-4D48-BABC-D7EE34EF441E}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:P49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -25123,8 +26489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E79AB-3905-4B03-AA0A-D79715D3E696}">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BT52" sqref="BT52"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62:BC93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>

--- a/Documents/Experiment-Design/experiment_design.xlsx
+++ b/Documents/Experiment-Design/experiment_design.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\Project-Module\Using-Image-Processing-for-Autonomous-Illumination-Sensor-Optimization\Documents\Experiment-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB8663-CCA1-4991-8DC6-D5DBF71EA9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D551D3A-4AC7-453E-809E-C487D35CFB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{63C2CE48-B23F-428E-9F7D-E5F226C3B2C7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63C2CE48-B23F-428E-9F7D-E5F226C3B2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="2" r:id="rId1"/>
-    <sheet name="Logics" sheetId="3" r:id="rId2"/>
-    <sheet name="Drawing" sheetId="1" r:id="rId3"/>
-    <sheet name="Environment" sheetId="4" r:id="rId4"/>
+    <sheet name="Record &amp; Replay" sheetId="5" r:id="rId2"/>
+    <sheet name="Environment" sheetId="4" r:id="rId3"/>
+    <sheet name="Logics" sheetId="3" r:id="rId4"/>
+    <sheet name="Drawing" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>ultrasonic sensor</t>
   </si>
@@ -176,6 +177,75 @@
   <si>
     <t>ROI logic creation</t>
   </si>
+  <si>
+    <t>Version 0.1</t>
+  </si>
+  <si>
+    <t>Version 0.2</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Record from live feed</t>
+  </si>
+  <si>
+    <t>Replays</t>
+  </si>
+  <si>
+    <t>Replay from record</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Timestamp
+2. Classification result
+</t>
+  </si>
+  <si>
+    <t>17 frame/ s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 sec 17 frame </t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Read frame
+2. FPS --&gt;  </t>
+  </si>
+  <si>
+    <t>1 sec</t>
+  </si>
+  <si>
+    <t>frames number</t>
+  </si>
+  <si>
+    <t>10 to 16</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>Ver 0.3</t>
+  </si>
+  <si>
+    <t>Button Logics</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -255,11 +325,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -276,6 +361,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15351,8 +15441,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6645453" y="8397128"/>
-          <a:ext cx="2420106" cy="1419225"/>
+          <a:off x="6687875" y="8405132"/>
+          <a:ext cx="2456125" cy="1419225"/>
           <a:chOff x="7742979" y="7744239"/>
           <a:chExt cx="2454608" cy="1419225"/>
         </a:xfrm>
@@ -15485,8 +15575,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9065559" y="8387603"/>
-          <a:ext cx="2422169" cy="1428750"/>
+          <a:off x="9144000" y="8395607"/>
+          <a:ext cx="2450985" cy="1428750"/>
           <a:chOff x="8056543" y="8696739"/>
           <a:chExt cx="2454608" cy="1428750"/>
         </a:xfrm>
@@ -20590,10 +20680,1464 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>310729</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>37238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C54A06-FCA7-5609-A983-E5F5FD14EC3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12696265" y="8101853"/>
+          <a:ext cx="6361905" cy="6895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>396443</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5AE624-7F59-1F39-ECF4-FC9C0180A70A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12696265" y="16102853"/>
+          <a:ext cx="6447619" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>131564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338C71BB-35FF-37BE-7D53-39DFF0E1C3EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="771525"/>
+          <a:ext cx="7667625" cy="4313039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87348F73-BEF5-1648-AB90-0958DBCE3435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="971550"/>
+          <a:ext cx="4686300" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F974DF-FA46-E37C-7C4E-4465EB2979E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="1352550"/>
+          <a:ext cx="4010025" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>132755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D25FF3F-65AB-3F70-D364-E08278D9C506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="6096000"/>
+          <a:ext cx="7686675" cy="4323755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE806E0-C852-079F-5E22-5ECEFD775C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="8362950"/>
+          <a:ext cx="247649" cy="247649"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Callout: Line 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7061D9-533B-4E68-96B3-2823940A6B56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10791825" y="7096125"/>
+          <a:ext cx="619125" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 253571"/>
+            <a:gd name="adj4" fmla="val -692179"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Center</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2CEA77F-0F7D-4336-8E74-6306924F556F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="6115050"/>
+          <a:ext cx="4914900" cy="4914900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5A1F49-E956-4B0F-AE31-0B3CE399D539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="6524625"/>
+          <a:ext cx="3971925" cy="3971925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>97082</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>17217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006E8F73-7946-4471-781F-14E183E0B2C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="7" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6450257" y="7086600"/>
+          <a:ext cx="1322143" cy="1312617"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3ACA5A0-302C-4903-B76D-1EF079F49428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6362700" y="6115050"/>
+          <a:ext cx="66675" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Callout: Line 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDCF520-60F9-469E-95E6-BC013CC1FB4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10734675" y="5334000"/>
+          <a:ext cx="876300" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 288571"/>
+            <a:gd name="adj4" fmla="val -493266"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>94.8 cm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Callout: Line 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F9BA52-E6B1-4301-BFC3-C3164CD21432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10734675" y="6096000"/>
+          <a:ext cx="876300" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 283571"/>
+            <a:gd name="adj4" fmla="val -412831"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>58.52 cm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7686675" cy="4323755"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ABC863-0563-4C71-A623-A105E43A5C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="6096000"/>
+          <a:ext cx="7686675" cy="4323755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2494DC0D-BBEC-48A7-B84C-4A7115817FDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="8362950"/>
+          <a:ext cx="247649" cy="247649"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Callout: Line 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14BDDC4-954F-496D-9546-911CA7BADD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10791825" y="7096125"/>
+          <a:ext cx="619125" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 253571"/>
+            <a:gd name="adj4" fmla="val -692179"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Center</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AF3138-BDD2-4AA1-AE6F-6E5534447B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="6115050"/>
+          <a:ext cx="4914900" cy="4914900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Oval 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C305F888-49C8-426F-AA17-989A3B86F535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="6524625"/>
+          <a:ext cx="3971925" cy="3971925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>97082</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>17217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A87F7B4-A049-4A2E-BEB0-E60A432BE749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6450257" y="7086600"/>
+          <a:ext cx="1322143" cy="1312617"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25047189-DCC9-478E-8F32-AA261CCC59BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6362700" y="6115050"/>
+          <a:ext cx="66675" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Callout: Line 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EB110E-99EB-4944-8910-3543AF1E31FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10734675" y="5334000"/>
+          <a:ext cx="876300" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 288571"/>
+            <a:gd name="adj4" fmla="val -493266"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>94.8 cm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Callout: Line 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48462815-31E3-44FC-A527-E583398114EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10734675" y="6096000"/>
+          <a:ext cx="876300" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 283571"/>
+            <a:gd name="adj4" fmla="val -412831"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>58.52 cm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22564,10 +24108,775 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600207</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E21E19-00C4-40D7-A364-0EBF9584E76E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7866529" y="31376471"/>
+          <a:ext cx="2415560" cy="605118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Play</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600207</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78ED446-E6B6-48DC-B15E-D12979B56DD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3630706" y="32866853"/>
+          <a:ext cx="2415560" cy="605118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Stop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB83D3C0-262A-4546-9799-D540637328CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9009530" y="34390853"/>
+          <a:ext cx="3440206" cy="605118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Connect Cam/Video</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4911</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362DD2B0-BC19-48EE-85F0-CABAA3ED619D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4845852" y="35914853"/>
+          <a:ext cx="3625795" cy="605118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Disconnect Cam/Video</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>392864</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F559CD5-781C-261E-B619-D2C245F78D16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10264589" y="31566971"/>
+          <a:ext cx="1020393" cy="963706"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Begin</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>442633</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>487786</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2D0A2D-673D-DAFA-59D6-05499E2A8F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10729633" y="32530677"/>
+          <a:ext cx="45153" cy="1860176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>442633</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB1FCDC-AB61-46A6-A278-45A2F20965E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="41" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8471647" y="34995971"/>
+          <a:ext cx="2257986" cy="1221441"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600207</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F21634-7692-401A-B007-73C95E86A56C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+          <a:endCxn id="38" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7256501" y="33012530"/>
+          <a:ext cx="1753029" cy="1680882"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602663</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5BAB37-A1A5-4FA7-BAFA-D22C34664EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1812898" y="33012530"/>
+          <a:ext cx="3028043" cy="1187823"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602663</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4911</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A35FBED-5193-4EB5-96F9-7DF598D3523F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1812898" y="34805471"/>
+          <a:ext cx="3032954" cy="1411941"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600207</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>602662</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F57385-544C-4C5D-89B0-15C284534630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3020678" y="33315089"/>
+          <a:ext cx="3028043" cy="1187823"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24552,1372 +26861,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>131564</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338C71BB-35FF-37BE-7D53-39DFF0E1C3EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628900" y="771525"/>
-          <a:ext cx="7667625" cy="4313039"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87348F73-BEF5-1648-AB90-0958DBCE3435}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4086225" y="971550"/>
-          <a:ext cx="4686300" cy="4686300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent2"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F974DF-FA46-E37C-7C4E-4465EB2979E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4438650" y="1352550"/>
-          <a:ext cx="4010025" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent5"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>132755</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D25FF3F-65AB-3F70-D364-E08278D9C506}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628900" y="6096000"/>
-          <a:ext cx="7686675" cy="4323755"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE806E0-C852-079F-5E22-5ECEFD775C6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6238875" y="8362950"/>
-          <a:ext cx="247649" cy="247649"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Callout: Line 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7061D9-533B-4E68-96B3-2823940A6B56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10791825" y="7096125"/>
-          <a:ext cx="619125" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 253571"/>
-            <a:gd name="adj4" fmla="val -692179"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Center</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Oval 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2CEA77F-0F7D-4336-8E74-6306924F556F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3971925" y="6115050"/>
-          <a:ext cx="4914900" cy="4914900"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent2"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Oval 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5A1F49-E956-4B0F-AE31-0B3CE399D539}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4371975" y="6524625"/>
-          <a:ext cx="3971925" cy="3971925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent5"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>97082</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>17217</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006E8F73-7946-4471-781F-14E183E0B2C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="7" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6450257" y="7086600"/>
-          <a:ext cx="1322143" cy="1312617"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3ACA5A0-302C-4903-B76D-1EF079F49428}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="7" idx="0"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6362700" y="6115050"/>
-          <a:ext cx="66675" cy="2247900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Callout: Line 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDCF520-60F9-469E-95E6-BC013CC1FB4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10734675" y="5334000"/>
-          <a:ext cx="876300" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 288571"/>
-            <a:gd name="adj4" fmla="val -493266"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>94.8 cm</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Callout: Line 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F9BA52-E6B1-4301-BFC3-C3164CD21432}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10734675" y="6096000"/>
-          <a:ext cx="876300" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 283571"/>
-            <a:gd name="adj4" fmla="val -412831"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>58.52 cm</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7686675" cy="4323755"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ABC863-0563-4C71-A623-A105E43A5C70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628900" y="6096000"/>
-          <a:ext cx="7686675" cy="4323755"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Oval 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2494DC0D-BBEC-48A7-B84C-4A7115817FDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6238875" y="8362950"/>
-          <a:ext cx="247649" cy="247649"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Callout: Line 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14BDDC4-954F-496D-9546-911CA7BADD51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10791825" y="7096125"/>
-          <a:ext cx="619125" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 253571"/>
-            <a:gd name="adj4" fmla="val -692179"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Center</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Oval 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AF3138-BDD2-4AA1-AE6F-6E5534447B23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3971925" y="6115050"/>
-          <a:ext cx="4914900" cy="4914900"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent2"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Oval 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C305F888-49C8-426F-AA17-989A3B86F535}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4371975" y="6524625"/>
-          <a:ext cx="3971925" cy="3971925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent5"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>97082</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>17217</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A87F7B4-A049-4A2E-BEB0-E60A432BE749}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6450257" y="7086600"/>
-          <a:ext cx="1322143" cy="1312617"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25047189-DCC9-478E-8F32-AA261CCC59BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="0"/>
-          <a:endCxn id="19" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6362700" y="6115050"/>
-          <a:ext cx="66675" cy="2247900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Callout: Line 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EB110E-99EB-4944-8910-3543AF1E31FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10734675" y="5334000"/>
-          <a:ext cx="876300" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 288571"/>
-            <a:gd name="adj4" fmla="val -493266"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>94.8 cm</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Callout: Line 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48462815-31E3-44FC-A527-E583398114EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10734675" y="6096000"/>
-          <a:ext cx="876300" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 283571"/>
-            <a:gd name="adj4" fmla="val -412831"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>58.52 cm</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -26217,8 +27160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1D7E30-530D-4C7A-BA0E-137DB41EF95C}">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P99" sqref="P99"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M135" sqref="M135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26233,6 +27176,11 @@
     <row r="1" spans="1:24" ht="23.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="X3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -26263,9 +27211,19 @@
         <v>9</v>
       </c>
     </row>
+    <row r="42" spans="24:24">
+      <c r="X42" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="24:24">
+      <c r="X84" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="3:3">
@@ -26281,11 +27239,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EEA08E-47F8-4E3C-85C9-C71B57B8C799}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="45">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="N14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14">
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14">
+      <c r="L19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E79AB-3905-4B03-AA0A-D79715D3E696}">
+  <dimension ref="A1:BC11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI91" sqref="BI91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:55">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55">
+      <c r="BC9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55">
+      <c r="BC11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE7E135-2CC5-4344-8F2D-172EBE71202B}">
-  <dimension ref="A1:T149"/>
+  <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z138" sqref="Z138"/>
+    <sheetView showGridLines="0" topLeftCell="A156" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V175" sqref="V175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26393,6 +27507,11 @@
         <v>45</v>
       </c>
     </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26400,12 +27519,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA44C6-5B68-4D48-BABC-D7EE34EF441E}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:P49"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26483,35 +27602,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E79AB-3905-4B03-AA0A-D79715D3E696}">
-  <dimension ref="A1:BC11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62:BC93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:55">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55">
-      <c r="BC9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55">
-      <c r="BC11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/Experiment-Design/experiment_design.xlsx
+++ b/Documents/Experiment-Design/experiment_design.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\Project-Module\Using-Image-Processing-for-Autonomous-Illumination-Sensor-Optimization\Documents\Experiment-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D551D3A-4AC7-453E-809E-C487D35CFB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12262517-52B4-4614-96D0-15F53A42FA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63C2CE48-B23F-428E-9F7D-E5F226C3B2C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Program" sheetId="2" r:id="rId1"/>
-    <sheet name="Record &amp; Replay" sheetId="5" r:id="rId2"/>
-    <sheet name="Environment" sheetId="4" r:id="rId3"/>
-    <sheet name="Logics" sheetId="3" r:id="rId4"/>
-    <sheet name="Drawing" sheetId="1" r:id="rId5"/>
+    <sheet name="Summary" sheetId="7" r:id="rId1"/>
+    <sheet name="person-detection" sheetId="2" r:id="rId2"/>
+    <sheet name="post-process" sheetId="8" r:id="rId3"/>
+    <sheet name="Record &amp; Replay" sheetId="5" r:id="rId4"/>
+    <sheet name="Environment" sheetId="4" r:id="rId5"/>
+    <sheet name="Logics" sheetId="3" r:id="rId6"/>
+    <sheet name="Drawing" sheetId="1" r:id="rId7"/>
+    <sheet name="Drawing2" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>ultrasonic sensor</t>
   </si>
@@ -86,15 +89,6 @@
   </si>
   <si>
     <t>Seat</t>
-  </si>
-  <si>
-    <t>Sensor Level</t>
-  </si>
-  <si>
-    <t>Floor Level</t>
-  </si>
-  <si>
-    <t>x = 203.3 tan 25</t>
   </si>
   <si>
     <t>x = 94.8</t>
@@ -246,12 +240,39 @@
   <si>
     <t>Button Logics</t>
   </si>
+  <si>
+    <t>y = 203.3</t>
+  </si>
+  <si>
+    <t>y =77.8</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Diagram</t>
+  </si>
+  <si>
+    <t>1 s = 10 measurements</t>
+  </si>
+  <si>
+    <t>100 ms = 1 measurement</t>
+  </si>
+  <si>
+    <t>1 s = 8 - 12 labels</t>
+  </si>
+  <si>
+    <t>majority vote?</t>
+  </si>
+  <si>
+    <t>certain result?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +329,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -344,16 +394,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -366,6 +410,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,6 +440,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FF4472C4"/>
       <color rgb="FF000000"/>
     </mruColors>
@@ -3792,6 +3859,925 @@
 </file>
 
 <file path=xl/diagrams/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="colorful" pri="10100"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent2">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent2">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -5815,6 +6801,234 @@
 </dgm:dataModel>
 </file>
 
+<file path=xl/diagrams/data6.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{3DF8BDB9-746E-4950-89ED-D34557762887}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1" loCatId="process" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/colorful1" csCatId="colorful" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F25444BD-F4A8-41EF-A9C8-0899018C4ED1}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Collect Data and Labels</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4FD8F9F2-B26A-4369-A8FA-70E09F06623F}" type="parTrans" cxnId="{DAA4EAB7-6AA1-4457-BAF3-6B617F6067C9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0540235C-7362-4D71-AFBB-F6F45E9163C0}" type="sibTrans" cxnId="{DAA4EAB7-6AA1-4457-BAF3-6B617F6067C9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F31EF20E-AAD6-4597-AD80-3EB1CAEF29D0}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Synchronise between Data and Labels</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{56B40B75-6156-46A1-A0C0-74C16B605F61}" type="parTrans" cxnId="{2CE6E362-4582-48A3-8FC7-9E90DBA081BC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8C8BC133-B81A-4572-82EE-765EDB0F58CD}" type="sibTrans" cxnId="{2CE6E362-4582-48A3-8FC7-9E90DBA081BC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D2F67E8A-35FF-45D1-8F6B-705450AC4FD4}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Optimisation</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{88D2C47C-50D9-4995-9317-B025F45D7E4A}" type="parTrans" cxnId="{BC21C5AF-E95C-4736-A8DE-4A6FA8B3BB34}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A5E12072-2562-44A4-8738-96FC03E60F9C}" type="sibTrans" cxnId="{BC21C5AF-E95C-4736-A8DE-4A6FA8B3BB34}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{99D58E97-FD3C-4392-91DC-8A81D752DAB1}" type="pres">
+      <dgm:prSet presAssocID="{3DF8BDB9-746E-4950-89ED-D34557762887}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9DFFDEC2-8F6E-416C-8417-6402C0AF49E2}" type="pres">
+      <dgm:prSet presAssocID="{F25444BD-F4A8-41EF-A9C8-0899018C4ED1}" presName="parTxOnly" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{49C882AE-0F95-4ABD-A51C-E3FEE8C64005}" type="pres">
+      <dgm:prSet presAssocID="{0540235C-7362-4D71-AFBB-F6F45E9163C0}" presName="parTxOnlySpace" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F9E23A2D-2FFE-4934-B499-831D472C9803}" type="pres">
+      <dgm:prSet presAssocID="{F31EF20E-AAD6-4597-AD80-3EB1CAEF29D0}" presName="parTxOnly" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E4F045E1-2EEA-4F8B-A98C-2B994B003957}" type="pres">
+      <dgm:prSet presAssocID="{8C8BC133-B81A-4572-82EE-765EDB0F58CD}" presName="parTxOnlySpace" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B0456AFD-C405-4F5D-B1DB-67FA06760A55}" type="pres">
+      <dgm:prSet presAssocID="{D2F67E8A-35FF-45D1-8F6B-705450AC4FD4}" presName="parTxOnly" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{5DEC1311-0CE7-432D-BD8F-2C48A29F3380}" type="presOf" srcId="{F25444BD-F4A8-41EF-A9C8-0899018C4ED1}" destId="{9DFFDEC2-8F6E-416C-8417-6402C0AF49E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{2CE6E362-4582-48A3-8FC7-9E90DBA081BC}" srcId="{3DF8BDB9-746E-4950-89ED-D34557762887}" destId="{F31EF20E-AAD6-4597-AD80-3EB1CAEF29D0}" srcOrd="1" destOrd="0" parTransId="{56B40B75-6156-46A1-A0C0-74C16B605F61}" sibTransId="{8C8BC133-B81A-4572-82EE-765EDB0F58CD}"/>
+    <dgm:cxn modelId="{6A66B545-C4FD-4C7C-9D22-94375B958CF2}" type="presOf" srcId="{F31EF20E-AAD6-4597-AD80-3EB1CAEF29D0}" destId="{F9E23A2D-2FFE-4934-B499-831D472C9803}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{A911F05A-2F71-4592-A8BE-98F3732D7147}" type="presOf" srcId="{3DF8BDB9-746E-4950-89ED-D34557762887}" destId="{99D58E97-FD3C-4392-91DC-8A81D752DAB1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{BC21C5AF-E95C-4736-A8DE-4A6FA8B3BB34}" srcId="{3DF8BDB9-746E-4950-89ED-D34557762887}" destId="{D2F67E8A-35FF-45D1-8F6B-705450AC4FD4}" srcOrd="2" destOrd="0" parTransId="{88D2C47C-50D9-4995-9317-B025F45D7E4A}" sibTransId="{A5E12072-2562-44A4-8738-96FC03E60F9C}"/>
+    <dgm:cxn modelId="{DAA4EAB7-6AA1-4457-BAF3-6B617F6067C9}" srcId="{3DF8BDB9-746E-4950-89ED-D34557762887}" destId="{F25444BD-F4A8-41EF-A9C8-0899018C4ED1}" srcOrd="0" destOrd="0" parTransId="{4FD8F9F2-B26A-4369-A8FA-70E09F06623F}" sibTransId="{0540235C-7362-4D71-AFBB-F6F45E9163C0}"/>
+    <dgm:cxn modelId="{30F7FCE9-FC9D-46F7-A0B1-F489AC5915AB}" type="presOf" srcId="{D2F67E8A-35FF-45D1-8F6B-705450AC4FD4}" destId="{B0456AFD-C405-4F5D-B1DB-67FA06760A55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{9FDFA6E5-01B1-421A-904B-0EA4685F434F}" type="presParOf" srcId="{99D58E97-FD3C-4392-91DC-8A81D752DAB1}" destId="{9DFFDEC2-8F6E-416C-8417-6402C0AF49E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{3637A8D0-C201-4593-B7E4-B8499E74E2E3}" type="presParOf" srcId="{99D58E97-FD3C-4392-91DC-8A81D752DAB1}" destId="{49C882AE-0F95-4ABD-A51C-E3FEE8C64005}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{B636FC4F-38FF-4E28-8A00-5E9F4ACCC81B}" type="presParOf" srcId="{99D58E97-FD3C-4392-91DC-8A81D752DAB1}" destId="{F9E23A2D-2FFE-4934-B499-831D472C9803}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{9456242D-1EEF-4E32-ACD6-AF8FCA5EC9C2}" type="presParOf" srcId="{99D58E97-FD3C-4392-91DC-8A81D752DAB1}" destId="{E4F045E1-2EEA-4F8B-A98C-2B994B003957}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{28C79F99-FEA8-407E-970A-1991534D4B25}" type="presParOf" srcId="{99D58E97-FD3C-4392-91DC-8A81D752DAB1}" destId="{B0456AFD-C405-4F5D-B1DB-67FA06760A55}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </dgm:whole>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId8" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
 <file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
@@ -5830,8 +7044,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2904" y="423896"/>
-          <a:ext cx="1690518" cy="676207"/>
+          <a:off x="2908" y="423346"/>
+          <a:ext cx="1693269" cy="677307"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -5901,12 +7115,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="52007" tIns="17336" rIns="17336" bIns="17336" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56007" tIns="18669" rIns="18669" bIns="18669" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5919,14 +7133,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
             <a:t>Select ROI</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="341008" y="423896"/>
-        <a:ext cx="1014311" cy="676207"/>
+        <a:off x="341562" y="423346"/>
+        <a:ext cx="1015962" cy="677307"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2634F03C-4AF7-4518-BDF5-8A2618676390}">
@@ -5936,8 +7150,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1524370" y="423896"/>
-          <a:ext cx="1690518" cy="676207"/>
+          <a:off x="1526851" y="423346"/>
+          <a:ext cx="1693269" cy="677307"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6007,12 +7221,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="52007" tIns="17336" rIns="17336" bIns="17336" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56007" tIns="18669" rIns="18669" bIns="18669" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6025,14 +7239,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
             <a:t>Preprocess</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1862474" y="423896"/>
-        <a:ext cx="1014311" cy="676207"/>
+        <a:off x="1865505" y="423346"/>
+        <a:ext cx="1015962" cy="677307"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{68CE4C8A-24DC-418D-8368-4532474D4BCE}">
@@ -6042,8 +7256,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3045837" y="423896"/>
-          <a:ext cx="1690518" cy="676207"/>
+          <a:off x="3050793" y="423346"/>
+          <a:ext cx="1693269" cy="677307"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6113,12 +7327,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="52007" tIns="17336" rIns="17336" bIns="17336" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56007" tIns="18669" rIns="18669" bIns="18669" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6131,19 +7345,19 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
             <a:t>Training</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200" baseline="0"/>
+            <a:rPr lang="en-US" sz="1400" kern="1200" baseline="0"/>
             <a:t>  and Validation</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3383941" y="423896"/>
-        <a:ext cx="1014311" cy="676207"/>
+        <a:off x="3389447" y="423346"/>
+        <a:ext cx="1015962" cy="677307"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{43A4A626-5D5A-431A-940B-8395156B3E79}">
@@ -6153,8 +7367,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4567303" y="423896"/>
-          <a:ext cx="1690518" cy="676207"/>
+          <a:off x="4574735" y="423346"/>
+          <a:ext cx="1693269" cy="677307"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6224,12 +7438,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="52007" tIns="17336" rIns="17336" bIns="17336" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56007" tIns="18669" rIns="18669" bIns="18669" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6242,14 +7456,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
             <a:t>Classification</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4905407" y="423896"/>
-        <a:ext cx="1014311" cy="676207"/>
+        <a:off x="4913389" y="423346"/>
+        <a:ext cx="1015962" cy="677307"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6271,8 +7485,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3525" y="66505"/>
-          <a:ext cx="2107712" cy="843085"/>
+          <a:off x="3531" y="65863"/>
+          <a:ext cx="2110924" cy="844369"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6366,8 +7580,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="425068" y="66505"/>
-        <a:ext cx="1264627" cy="843085"/>
+        <a:off x="425716" y="65863"/>
+        <a:ext cx="1266555" cy="844369"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2634F03C-4AF7-4518-BDF5-8A2618676390}">
@@ -6377,8 +7591,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1900467" y="66505"/>
-          <a:ext cx="2107712" cy="843085"/>
+          <a:off x="1903363" y="65863"/>
+          <a:ext cx="2110924" cy="844369"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6472,8 +7686,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2322010" y="66505"/>
-        <a:ext cx="1264627" cy="843085"/>
+        <a:off x="2325548" y="65863"/>
+        <a:ext cx="1266555" cy="844369"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6495,8 +7709,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4402" y="413143"/>
-          <a:ext cx="1924856" cy="1154913"/>
+          <a:off x="4410" y="412144"/>
+          <a:ext cx="1928184" cy="1156910"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6592,8 +7806,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="38228" y="446969"/>
-        <a:ext cx="1857204" cy="1087261"/>
+        <a:off x="38295" y="446029"/>
+        <a:ext cx="1860414" cy="1089140"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A54A408A-A079-4C54-A4BB-A32D6A8C7BB9}">
@@ -6603,8 +7817,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2121744" y="751917"/>
-          <a:ext cx="408069" cy="477364"/>
+          <a:off x="2125412" y="751505"/>
+          <a:ext cx="408775" cy="478189"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -6691,8 +7905,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2121744" y="847390"/>
-        <a:ext cx="285648" cy="286418"/>
+        <a:off x="2125412" y="847143"/>
+        <a:ext cx="286143" cy="286913"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{12AC3C73-ED91-414A-B22C-E4E1D2B204F8}">
@@ -6702,8 +7916,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2699201" y="413143"/>
-          <a:ext cx="1924856" cy="1154913"/>
+          <a:off x="2703867" y="412144"/>
+          <a:ext cx="1928184" cy="1156910"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6799,8 +8013,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2733027" y="446969"/>
-        <a:ext cx="1857204" cy="1087261"/>
+        <a:off x="2737752" y="446029"/>
+        <a:ext cx="1860414" cy="1089140"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4E3075B6-E04B-414E-992C-B847DAC33402}">
@@ -6810,8 +8024,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4816543" y="751917"/>
-          <a:ext cx="408069" cy="477364"/>
+          <a:off x="4824870" y="751505"/>
+          <a:ext cx="408775" cy="478189"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -6898,8 +8112,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4816543" y="847390"/>
-        <a:ext cx="285648" cy="286418"/>
+        <a:off x="4824870" y="847143"/>
+        <a:ext cx="286143" cy="286913"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D2D9247D-52FE-4513-9AE2-547715181E29}">
@@ -6909,8 +8123,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5394000" y="413143"/>
-          <a:ext cx="1924856" cy="1154913"/>
+          <a:off x="5403325" y="412144"/>
+          <a:ext cx="1928184" cy="1156910"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7006,8 +8220,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5427826" y="446969"/>
-        <a:ext cx="1857204" cy="1087261"/>
+        <a:off x="5437210" y="446029"/>
+        <a:ext cx="1860414" cy="1089140"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DC2ED318-6ED1-42B6-9E7B-95BC4528D506}">
@@ -7017,8 +8231,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7511343" y="751917"/>
-          <a:ext cx="408069" cy="477364"/>
+          <a:off x="7524328" y="751505"/>
+          <a:ext cx="408775" cy="478189"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7105,8 +8319,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7511343" y="847390"/>
-        <a:ext cx="285648" cy="286418"/>
+        <a:off x="7524328" y="847143"/>
+        <a:ext cx="286143" cy="286913"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0E24EF2E-6F2D-48E0-B4EA-F08DFDE75138}">
@@ -7116,8 +8330,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8088799" y="413143"/>
-          <a:ext cx="1924856" cy="1154913"/>
+          <a:off x="8102783" y="412144"/>
+          <a:ext cx="1928184" cy="1156910"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7213,8 +8427,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8122625" y="446969"/>
-        <a:ext cx="1857204" cy="1087261"/>
+        <a:off x="8136668" y="446029"/>
+        <a:ext cx="1860414" cy="1089140"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -7236,8 +8450,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8804" y="829740"/>
-          <a:ext cx="2631697" cy="1579018"/>
+          <a:off x="8820" y="828375"/>
+          <a:ext cx="2636246" cy="1581748"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7333,8 +8547,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="55052" y="875988"/>
-        <a:ext cx="2539201" cy="1486522"/>
+        <a:off x="55148" y="874703"/>
+        <a:ext cx="2543590" cy="1489092"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4E3075B6-E04B-414E-992C-B847DAC33402}">
@@ -7344,8 +8558,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2903671" y="1292919"/>
-          <a:ext cx="557919" cy="652660"/>
+          <a:off x="2908691" y="1292355"/>
+          <a:ext cx="558884" cy="653789"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7432,8 +8646,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2903671" y="1423451"/>
-        <a:ext cx="390543" cy="391596"/>
+        <a:off x="2908691" y="1423113"/>
+        <a:ext cx="391219" cy="392273"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D2D9247D-52FE-4513-9AE2-547715181E29}">
@@ -7443,8 +8657,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3693180" y="829740"/>
-          <a:ext cx="2631697" cy="1579018"/>
+          <a:off x="3699565" y="828375"/>
+          <a:ext cx="2636246" cy="1581748"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7540,8 +8754,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3739428" y="875988"/>
-        <a:ext cx="2539201" cy="1486522"/>
+        <a:off x="3745893" y="874703"/>
+        <a:ext cx="2543590" cy="1489092"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DC2ED318-6ED1-42B6-9E7B-95BC4528D506}">
@@ -7551,8 +8765,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6588047" y="1292919"/>
-          <a:ext cx="557919" cy="652660"/>
+          <a:off x="6599437" y="1292355"/>
+          <a:ext cx="558884" cy="653789"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7639,8 +8853,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6588047" y="1423451"/>
-        <a:ext cx="390543" cy="391596"/>
+        <a:off x="6599437" y="1423113"/>
+        <a:ext cx="391219" cy="392273"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0E24EF2E-6F2D-48E0-B4EA-F08DFDE75138}">
@@ -7650,8 +8864,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7377556" y="829740"/>
-          <a:ext cx="2631697" cy="1579018"/>
+          <a:off x="7390311" y="828375"/>
+          <a:ext cx="2636246" cy="1581748"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7747,8 +8961,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7423804" y="875988"/>
-        <a:ext cx="2539201" cy="1486522"/>
+        <a:off x="7436639" y="874703"/>
+        <a:ext cx="2543590" cy="1489092"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -7770,8 +8984,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4402" y="508393"/>
-          <a:ext cx="1924856" cy="1154913"/>
+          <a:off x="4409" y="507453"/>
+          <a:ext cx="1927988" cy="1156793"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7867,8 +9081,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="38228" y="542219"/>
-        <a:ext cx="1857204" cy="1087261"/>
+        <a:off x="38290" y="541334"/>
+        <a:ext cx="1860226" cy="1089031"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A54A408A-A079-4C54-A4BB-A32D6A8C7BB9}">
@@ -7878,8 +9092,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2121744" y="847167"/>
-          <a:ext cx="408069" cy="477364"/>
+          <a:off x="2125196" y="846779"/>
+          <a:ext cx="408733" cy="478141"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7966,8 +9180,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2121744" y="942640"/>
-        <a:ext cx="285648" cy="286418"/>
+        <a:off x="2125196" y="942407"/>
+        <a:ext cx="286113" cy="286885"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{12AC3C73-ED91-414A-B22C-E4E1D2B204F8}">
@@ -7977,8 +9191,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2699201" y="508393"/>
-          <a:ext cx="1924856" cy="1154913"/>
+          <a:off x="2703593" y="507453"/>
+          <a:ext cx="1927988" cy="1156793"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8074,8 +9288,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2733027" y="542219"/>
-        <a:ext cx="1857204" cy="1087261"/>
+        <a:off x="2737474" y="541334"/>
+        <a:ext cx="1860226" cy="1089031"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4E3075B6-E04B-414E-992C-B847DAC33402}">
@@ -8085,8 +9299,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4816543" y="847167"/>
-          <a:ext cx="408069" cy="477364"/>
+          <a:off x="4824380" y="846779"/>
+          <a:ext cx="408733" cy="478141"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -8173,8 +9387,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4816543" y="942640"/>
-        <a:ext cx="285648" cy="286418"/>
+        <a:off x="4824380" y="942407"/>
+        <a:ext cx="286113" cy="286885"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D2D9247D-52FE-4513-9AE2-547715181E29}">
@@ -8184,8 +9398,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5394000" y="508393"/>
-          <a:ext cx="1924856" cy="1154913"/>
+          <a:off x="5402777" y="507453"/>
+          <a:ext cx="1927988" cy="1156793"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8281,8 +9495,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5427826" y="542219"/>
-        <a:ext cx="1857204" cy="1087261"/>
+        <a:off x="5436658" y="541334"/>
+        <a:ext cx="1860226" cy="1089031"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DC2ED318-6ED1-42B6-9E7B-95BC4528D506}">
@@ -8292,8 +9506,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7511343" y="847167"/>
-          <a:ext cx="408069" cy="477364"/>
+          <a:off x="7523564" y="846779"/>
+          <a:ext cx="408733" cy="478141"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -8380,8 +9594,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7511343" y="942640"/>
-        <a:ext cx="285648" cy="286418"/>
+        <a:off x="7523564" y="942407"/>
+        <a:ext cx="286113" cy="286885"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0E24EF2E-6F2D-48E0-B4EA-F08DFDE75138}">
@@ -8391,8 +9605,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8088799" y="508393"/>
-          <a:ext cx="1924856" cy="1154913"/>
+          <a:off x="8101960" y="507453"/>
+          <a:ext cx="1927988" cy="1156793"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8488,8 +9702,266 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8122625" y="542219"/>
-        <a:ext cx="1857204" cy="1087261"/>
+        <a:off x="8135841" y="541334"/>
+        <a:ext cx="1860226" cy="1089031"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{9DFFDEC2-8F6E-416C-8417-6402C0AF49E2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1846" y="328836"/>
+          <a:ext cx="2249863" cy="899945"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68009" tIns="22670" rIns="22670" bIns="22670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Collect Data and Labels</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="451819" y="328836"/>
+        <a:ext cx="1349918" cy="899945"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F9E23A2D-2FFE-4934-B499-831D472C9803}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2026723" y="328836"/>
+          <a:ext cx="2249863" cy="899945"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68009" tIns="22670" rIns="22670" bIns="22670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Synchronise between Data and Labels</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2476696" y="328836"/>
+        <a:ext cx="1349918" cy="899945"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B0456AFD-C405-4F5D-B1DB-67FA06760A55}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4051600" y="328836"/>
+          <a:ext cx="2249863" cy="899945"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68009" tIns="22670" rIns="22670" bIns="22670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Optimisation</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4501573" y="328836"/>
+        <a:ext cx="1349918" cy="899945"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9500,6 +10972,289 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout6.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="9000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:choose name="Name4">
+      <dgm:if name="Name5" axis="des" func="maxDepth" op="gte" val="2">
+        <dgm:constrLst>
+          <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+          <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+          <dgm:constr type="w" for="des" forName="parTx"/>
+          <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+          <dgm:constr type="w" for="des" forName="desTx"/>
+          <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+          <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+          <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+          <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.5"/>
+          <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.5"/>
+          <dgm:constr type="w" for="ch" forName="space" op="equ" val="-6"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+          <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:forEach name="Name6" axis="ch" ptType="node">
+          <dgm:layoutNode name="composite">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:choose name="Name7">
+              <dgm:if name="Name8" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="parTx"/>
+                  <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="parTx"/>
+                  <dgm:constr type="l" for="ch" forName="desTx"/>
+                  <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx" fact="0.8"/>
+                  <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx" fact="1.125"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name9">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="parTx"/>
+                  <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="parTx"/>
+                  <dgm:constr type="l" for="ch" forName="desTx" refType="w" fact="0.2"/>
+                  <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx" fact="0.8"/>
+                  <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx" fact="1.125"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst>
+              <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+            <dgm:layoutNode name="parTx">
+              <dgm:varLst>
+                <dgm:chMax val="0"/>
+                <dgm:chPref val="0"/>
+                <dgm:bulletEnabled val="1"/>
+              </dgm:varLst>
+              <dgm:alg type="tx"/>
+              <dgm:choose name="Name10">
+                <dgm:if name="Name11" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="chevron" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:if>
+                <dgm:else name="Name12">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" rot="180" type="chevron" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:else>
+              </dgm:choose>
+              <dgm:presOf axis="self" ptType="node"/>
+              <dgm:choose name="Name13">
+                <dgm:if name="Name14" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:constrLst>
+                    <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+                    <dgm:constr type="h"/>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.315"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.105"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name15">
+                  <dgm:constrLst>
+                    <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+                    <dgm:constr type="h"/>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.315"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+              <dgm:ruleLst>
+                <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="desTx" styleLbl="revTx">
+              <dgm:varLst>
+                <dgm:bulletEnabled val="1"/>
+              </dgm:varLst>
+              <dgm:alg type="tx">
+                <dgm:param type="stBulletLvl" val="1"/>
+              </dgm:alg>
+              <dgm:choose name="Name16">
+                <dgm:if name="Name17" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:if>
+                <dgm:else name="Name18">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:else>
+              </dgm:choose>
+              <dgm:presOf axis="des" ptType="node"/>
+              <dgm:constrLst>
+                <dgm:constr type="secFontSz" val="65"/>
+                <dgm:constr type="primFontSz" refType="secFontSz"/>
+                <dgm:constr type="h"/>
+                <dgm:constr type="tMarg"/>
+                <dgm:constr type="bMarg"/>
+                <dgm:constr type="rMarg"/>
+                <dgm:constr type="lMarg"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:forEach name="Name19" axis="followSib" ptType="sibTrans" cnt="1">
+            <dgm:layoutNode name="space">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:if>
+      <dgm:else name="Name20">
+        <dgm:constrLst>
+          <dgm:constr type="w" for="ch" forName="parTxOnly" refType="w"/>
+          <dgm:constr type="h" for="des" forName="parTxOnly" op="equ"/>
+          <dgm:constr type="primFontSz" for="des" forName="parTxOnly" op="equ" val="65"/>
+          <dgm:constr type="w" for="ch" forName="parTxOnlySpace" refType="w" refFor="ch" refForName="parTxOnly" fact="-0.1"/>
+        </dgm:constrLst>
+        <dgm:ruleLst/>
+        <dgm:forEach name="Name21" axis="ch" ptType="node">
+          <dgm:layoutNode name="parTxOnly">
+            <dgm:varLst>
+              <dgm:chMax val="0"/>
+              <dgm:chPref val="0"/>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:choose name="Name22">
+              <dgm:if name="Name23" func="var" arg="dir" op="equ" val="norm">
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="chevron" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:if>
+              <dgm:else name="Name24">
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" rot="180" type="chevron" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:presOf axis="self" ptType="node"/>
+            <dgm:choose name="Name25">
+              <dgm:if name="Name26" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w" op="equ" fact="0.4"/>
+                  <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="lMarg" refType="primFontSz" fact="0.315"/>
+                  <dgm:constr type="rMarg" refType="primFontSz" fact="0.105"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name27">
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w" op="equ" fact="0.4"/>
+                  <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="lMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="rMarg" refType="primFontSz" fact="0.315"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:forEach name="Name28" axis="followSib" ptType="sibTrans" cnt="1">
+            <dgm:layoutNode name="parTxOnlySpace">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:else>
+    </dgm:choose>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple3">
   <dgm:title val=""/>
@@ -14800,7 +16555,2525 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle6.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E67829-6050-0281-EB93-9C7505101DAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2551043" y="1333500"/>
+          <a:ext cx="1159566" cy="753717"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ultrasonic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Measurement Software</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>231912</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6FEF9A-B7C7-4F52-BAEB-D4D1A54B1880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638260" y="1341783"/>
+          <a:ext cx="1159566" cy="753717"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Person</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>-detection </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Software</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B2A5B2-0919-40A5-827B-9B1B717C2902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3478696" y="4555434"/>
+          <a:ext cx="1391478" cy="588066"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Post-process</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Software</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8FE752E-46D1-4EED-88A6-A695A1327D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2551043" y="2940326"/>
+          <a:ext cx="1159566" cy="588065"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ultrasonic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07EE549-D4A9-4171-B6CD-A1CD926334ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638262" y="2923761"/>
+          <a:ext cx="1159566" cy="588065"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Person</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Detection Label</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BB4E57-9641-4184-BB45-A82A632CCDC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3478697" y="5847522"/>
+          <a:ext cx="1391478" cy="778565"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ultrasonic Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> +</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Label</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connector: Elbow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556307B3-775C-8EB7-75D2-3AE1635C53CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2644223" y="4014994"/>
+          <a:ext cx="1321076" cy="347870"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>115959</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connector: Elbow 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059FB3A9-8721-4054-BF99-2EA8C8FE7194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4375290" y="4006711"/>
+          <a:ext cx="1337641" cy="347871"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>115958</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABA9FF7-8F7A-BD2C-FD0B-9292BD0C1353}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5218043" y="2095500"/>
+          <a:ext cx="2" cy="828261"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA5E2EC-BF5E-4310-B0E2-18C768100EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3130826" y="2087217"/>
+          <a:ext cx="0" cy="853109"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AF53AD-829B-4F77-AC8E-B8A1497B2F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4174435" y="5143500"/>
+          <a:ext cx="1" cy="704022"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>124238</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Speech Bubble: Rectangle with Corners Rounded 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85708E74-E220-9B7D-8C14-70A5ACD860E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8473108" y="7338391"/>
+          <a:ext cx="2228022" cy="1118153"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63583"/>
+            <a:gd name="adj2" fmla="val -33055"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13:11:49</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : Person</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13:11:49</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : Empty Scene</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13:11:49</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : Empty Scene</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13:11:49</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : Empty Scene</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>119300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BF3DE2-D856-589A-546B-21407D290970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="1" t="1592" r="40565" b="21911"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200979" y="7280413"/>
+          <a:ext cx="3324669" cy="2005853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>53010</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>61292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>223631</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1345C90-1A44-4659-A2B3-1D3266CF93E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="61596" t="960" r="6333" b="22543"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6314662" y="7300292"/>
+          <a:ext cx="1794012" cy="2005853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>223631</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle: Rounded Corners 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958E8E56-13A8-8256-6A1F-996356A7882D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6253370" y="7321826"/>
+          <a:ext cx="1896717" cy="438978"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77857</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle: Rounded Corners 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F66150-A658-4B6E-95FC-1BB6FD360214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1237422" y="7325139"/>
+          <a:ext cx="3309730" cy="750404"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>124238</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>124238</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Left Brace 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C99DFCE-3148-3AD4-7734-6DD72148CCF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10096499" y="7396370"/>
+          <a:ext cx="231913" cy="753717"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44047"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="TextBox 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C110EB8E-5115-CC37-7EF7-7A341B74D615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10394674" y="7545457"/>
+          <a:ext cx="2228022" cy="438978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13:11:49</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : Empty Scene</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>86138</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>61292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Speech Bubble: Rectangle with Corners Rounded 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C80C198-F35F-43CF-B2A8-04A735FD403B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724399" y="7490792"/>
+          <a:ext cx="1388166" cy="576469"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63583"/>
+            <a:gd name="adj2" fmla="val -33055"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10 measurements for  1 timestamp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20771,8 +25044,128 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7686675" cy="4323755"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ABC863-0563-4C71-A623-A105E43A5C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="6096000"/>
+          <a:ext cx="7686675" cy="4323755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5E5982-F6C3-5538-EECF-34D30FB8943E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2655794" y="12528176"/>
+          <a:ext cx="7754471" cy="3137647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Floor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -20800,7 +25193,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20986,7 +25379,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21550,51 +25943,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7686675" cy="4323755"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ABC863-0563-4C71-A623-A105E43A5C70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628900" y="6096000"/>
-          <a:ext cx="7686675" cy="4323755"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
@@ -21655,267 +26003,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Callout: Line 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14BDDC4-954F-496D-9546-911CA7BADD51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10791825" y="7096125"/>
-          <a:ext cx="619125" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 253571"/>
-            <a:gd name="adj4" fmla="val -692179"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Center</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Oval 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AF3138-BDD2-4AA1-AE6F-6E5534447B23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3971925" y="6115050"/>
-          <a:ext cx="4914900" cy="4914900"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent2"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Oval 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C305F888-49C8-426F-AA17-989A3B86F535}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4371975" y="6524625"/>
-          <a:ext cx="3971925" cy="3971925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent5"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>97082</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>17217</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A87F7B4-A049-4A2E-BEB0-E60A432BE749}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6450257" y="7086600"/>
-          <a:ext cx="1322143" cy="1312617"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>66</xdr:row>
@@ -21949,7 +26036,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
+        <a:ln w="76200">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -21974,25 +26061,435 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>51121</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>8881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D826AB75-8673-FA4B-F253-B0377D77273A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13447059" y="12573000"/>
+          <a:ext cx="7895238" cy="5152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Group 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BA3824-11CD-7A04-94A3-1871A138042C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4062693" y="12539383"/>
+          <a:ext cx="6008034" cy="4967567"/>
+          <a:chOff x="4062693" y="12539383"/>
+          <a:chExt cx="6008034" cy="4967567"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Callout: Line 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14BDDC4-954F-496D-9546-911CA7BADD51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9436474" y="14099801"/>
+            <a:ext cx="634253" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout1">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 18750"/>
+              <a:gd name="adj2" fmla="val -8333"/>
+              <a:gd name="adj3" fmla="val 159033"/>
+              <a:gd name="adj4" fmla="val -446596"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>CENTER</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Oval 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AF3138-BDD2-4AA1-AE6F-6E5534447B23}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4062693" y="12592050"/>
+            <a:ext cx="5025838" cy="4914900"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="accent2"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Oval 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C305F888-49C8-426F-AA17-989A3B86F535}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4467785" y="13001625"/>
+            <a:ext cx="4067736" cy="3971925"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="accent5"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="Straight Connector 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A87F7B4-A049-4A2E-BEB0-E60A432BE749}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="15" idx="7"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6596494" y="13563600"/>
+            <a:ext cx="1352399" cy="1312617"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Callout: Line 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EB110E-99EB-4944-8910-3543AF1E31FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8706971" y="12539383"/>
+            <a:ext cx="896470" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout1">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 18750"/>
+              <a:gd name="adj2" fmla="val -8333"/>
+              <a:gd name="adj3" fmla="val 255238"/>
+              <a:gd name="adj4" fmla="val -239516"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>94.8 cm</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Callout: Line 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48462815-31E3-44FC-A527-E583398114EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9076765" y="13312588"/>
+            <a:ext cx="896470" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout1">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 18750"/>
+              <a:gd name="adj2" fmla="val -8333"/>
+              <a:gd name="adj3" fmla="val 148277"/>
+              <a:gd name="adj4" fmla="val -187831"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>58.52 cm</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Callout: Line 22">
+        <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EB110E-99EB-4944-8910-3543AF1E31FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F648FF3-B3ED-4D27-8935-F1CF91682682}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22000,144 +26497,103 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10734675" y="5334000"/>
-          <a:ext cx="876300" cy="571500"/>
+          <a:off x="2662518" y="15661341"/>
+          <a:ext cx="7754471" cy="1293160"/>
         </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 288571"/>
-            <a:gd name="adj4" fmla="val -493266"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="0070C0">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
         </a:solidFill>
-        <a:ln w="28575">
+        <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="4400">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>94.8 cm</a:t>
+            <a:t>Desk</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>102080</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>132146</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Callout: Line 23">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48462815-31E3-44FC-A527-E583398114EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39E155B-B907-B40F-7C1C-A53C8E991518}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10734675" y="6096000"/>
-          <a:ext cx="876300" cy="571500"/>
+          <a:off x="9917206" y="18601765"/>
+          <a:ext cx="8114286" cy="5152381"/>
         </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 283571"/>
-            <a:gd name="adj4" fmla="val -412831"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>58.52 cm</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22359,7 +26815,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2420471" y="19296529"/>
+          <a:off x="2420471" y="17201029"/>
           <a:ext cx="7898823" cy="4323755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24876,19 +29332,206 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2DD293B-7864-2D43-2836-4CB22A20F23C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="3543300"/>
+          <a:ext cx="4724400" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Desk</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Right Brace 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553E9D45-AD07-7847-2741-42C9A945B285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="2134333"/>
+          <a:ext cx="390525" cy="2029772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EFF016-B218-8F89-C9F3-5B6938147504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="2989385"/>
+          <a:ext cx="1219200" cy="263769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>203.30 cm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24957,15 +29600,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>45719</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24981,7 +29624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="1714500"/>
+          <a:off x="2980765" y="1714500"/>
           <a:ext cx="45719" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25017,15 +29660,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>563882</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -25041,8 +29684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6659882" y="1714500"/>
-          <a:ext cx="45719" cy="2476500"/>
+          <a:off x="6611471" y="1714500"/>
+          <a:ext cx="1" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25078,14 +29721,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>144779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -25137,23 +29780,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Graphic 7" descr="Office Chair outline">
+        <xdr:cNvPr id="10" name="Graphic 9" descr="Lights On outline">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1822694-D8AC-46EA-A356-5D4C3438CFE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF53B8-40B8-4360-81E0-943ED7B76C5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25177,9 +29820,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="3048000"/>
-          <a:ext cx="1219200" cy="1143000"/>
+        <a:xfrm flipV="1">
+          <a:off x="3657600" y="1714500"/>
+          <a:ext cx="609600" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25190,23 +29833,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Graphic 9" descr="Lights On outline">
+        <xdr:cNvPr id="11" name="Graphic 10" descr="Lights On outline">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF53B8-40B8-4360-81E0-943ED7B76C5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3488CEB-F9FA-4EF9-A1D9-CCACDAB69D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5486400" y="1714500"/>
+          <a:ext cx="609600" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphic 16" descr="Security camera outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5289556F-0CD8-4177-87C4-51FB4D40719D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25230,9 +29926,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3657600" y="1714500"/>
-          <a:ext cx="609600" cy="571500"/>
+        <a:xfrm rot="5400000">
+          <a:off x="5257800" y="0"/>
+          <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25243,76 +29939,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>915</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Graphic 10" descr="Lights On outline">
+        <xdr:cNvPr id="25" name="Graphic 24" descr="Computer with solid fill">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3488CEB-F9FA-4EF9-A1D9-CCACDAB69D77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5486400" y="1714500"/>
-          <a:ext cx="609600" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Graphic 16" descr="Security camera outline">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5289556F-0CD8-4177-87C4-51FB4D40719D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D048B3-2399-420C-A3D9-6A179D22302A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25336,62 +29979,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5257800" y="0"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>915</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Graphic 24" descr="Computer with solid fill">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D048B3-2399-420C-A3D9-6A179D22302A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
         <a:xfrm>
           <a:off x="1524000" y="3467100"/>
-          <a:ext cx="914400" cy="914400"/>
+          <a:ext cx="915315" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25408,9 +29998,9 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -25461,13 +30051,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -25518,139 +30108,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2DD293B-7864-2D43-2836-4CB22A20F23C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3124200" y="3543300"/>
-          <a:ext cx="4724400" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000">
-            <a:alpha val="30196"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Desk</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Right Brace 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553E9D45-AD07-7847-2741-42C9A945B285}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8296275" y="2124808"/>
-          <a:ext cx="389060" cy="2029772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -25667,7 +30133,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4924425" y="2105025"/>
-          <a:ext cx="7239000" cy="0"/>
+          <a:ext cx="3000375" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -25695,15 +30161,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>59348</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>2198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>592748</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>2198</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -25719,8 +30185,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4924425" y="4193198"/>
-          <a:ext cx="7222881" cy="0"/>
+          <a:off x="4936148" y="4193198"/>
+          <a:ext cx="2988652" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -25748,78 +30214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>131885</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>432289</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EFF016-B218-8F89-C9F3-5B6938147504}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8704385" y="2989385"/>
-          <a:ext cx="849923" cy="263769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>203.30 cm</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>103309</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>492369</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>189250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25834,22 +30238,23 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8617194" y="3538904"/>
+          <a:off x="6705600" y="3540154"/>
           <a:ext cx="389060" cy="650846"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -25868,15 +30273,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>211748</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>117963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>137014</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>117963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -25892,8 +30297,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076825" y="3546963"/>
-          <a:ext cx="7222881" cy="0"/>
+          <a:off x="5088548" y="3546963"/>
+          <a:ext cx="2836252" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -25921,15 +30326,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>512884</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -25945,13 +30350,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9026769" y="3736731"/>
-          <a:ext cx="849923" cy="263769"/>
+          <a:off x="6486525" y="3736731"/>
+          <a:ext cx="828675" cy="263769"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -25973,7 +30382,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1200"/>
             <a:t>77.80 cm</a:t>
           </a:r>
         </a:p>
@@ -25983,15 +30392,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>549519</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>102578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>315057</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -26040,7 +30449,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Desk</a:t>
+            <a:t>Dek</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -26054,80 +30463,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>388327</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>183172</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Isosceles Triangle 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B91E3FD-27BD-B635-A9B7-C1819AFDA2F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4031640" y="2102827"/>
-          <a:ext cx="2867573" cy="2080845"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4472C4">
-            <a:alpha val="20000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>175845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>124558</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>65941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -26179,15 +30523,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>102576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>604472</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>29308</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -26239,15 +30583,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>232172</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>375047</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -26301,15 +30645,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>208358</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>160734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>410765</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -26325,8 +30669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6280546" y="2637234"/>
-          <a:ext cx="809625" cy="291703"/>
+          <a:off x="5694758" y="2637234"/>
+          <a:ext cx="1010842" cy="291703"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -26336,7 +30680,9 @@
             <a:gd name="adj4" fmla="val -95102"/>
           </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -26360,7 +30706,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -26374,15 +30720,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>29766</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>303611</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -26446,16 +30792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>529825</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>53579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>65481</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>41673</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26508,16 +30854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>351234</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>125016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>553641</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26532,15 +30878,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6423422" y="5649516"/>
-          <a:ext cx="809625" cy="291703"/>
+          <a:off x="15210234" y="6306741"/>
+          <a:ext cx="812007" cy="303609"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 18750"/>
             <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val -55164"/>
-            <a:gd name="adj4" fmla="val -95102"/>
+            <a:gd name="adj3" fmla="val -7525"/>
+            <a:gd name="adj4" fmla="val -103313"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -26581,15 +30927,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3572</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>3573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -26653,15 +30999,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>389334</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>115490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -26725,15 +31071,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>516792</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>452999</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>78748</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -26787,15 +31133,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>321473</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>523880</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>41672</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -26856,6 +31202,1171 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208123</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38D2C30-4F2D-2D75-FA59-0183B55F4E98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="4953000"/>
+          <a:ext cx="2465548" cy="4580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphic 7" descr="Office Chair outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1822694-D8AC-46EA-A356-5D4C3438CFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="3048000"/>
+          <a:ext cx="1219200" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388327</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219807</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>183172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Isosceles Triangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B91E3FD-27BD-B635-A9B7-C1819AFDA2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4031640" y="2102827"/>
+          <a:ext cx="2867573" cy="2080845"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472C4">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>294480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12CC1968-1140-ECBC-0109-A7762767AA63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010775" y="571500"/>
+          <a:ext cx="6361905" cy="4390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180180</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>94714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F20446-34D9-4141-2B86-F64FFE5773B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9896475" y="10944225"/>
+          <a:ext cx="6361905" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>220266</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>75010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Right Triangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36796E2-9512-410A-9E69-A30AE2BE238B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12640866" y="5875735"/>
+          <a:ext cx="998934" cy="1763315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>164367</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>100574</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Arc 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82C4719-42A6-46E6-B2A2-0184E330EC09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8100000">
+          <a:off x="12613542" y="6038685"/>
+          <a:ext cx="545807" cy="526587"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>351234</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F994812-5AEC-9572-234E-3DDB7D3421DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12753975" y="6372225"/>
+          <a:ext cx="2456259" cy="86321"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361492</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648FB505-2C02-49EA-8A2E-F19D71D7BBD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="12420600"/>
+          <a:ext cx="3666667" cy="2819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14331856-0027-EEDE-1A87-5E60FBC354A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="571500"/>
+          <a:ext cx="6000750" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>System</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> Architecture</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0B85F8-207A-403C-A55E-3FAC81D39323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="1143000"/>
+          <a:ext cx="2571750" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Data Labeling</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7474F6CC-ADF0-43D6-8C52-449D17C76F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="1143000"/>
+          <a:ext cx="2686050" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t> Ultrasonic Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> Collection</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E91963A-A861-4809-90FC-CD62AAA7B838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="1524000"/>
+          <a:ext cx="2076450" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Person detection software</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335DA894-A288-4D78-80E9-6C1EA0A54429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="2286000"/>
+          <a:ext cx="2076450" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Webcam Camera</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1B5B5E-D4A9-4748-8D4A-E9C0A657682F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="1524000"/>
+          <a:ext cx="2190750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Ultrasonic Sensor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Measurement Software</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574D1CB1-FCEA-4E28-AC34-B99D01C6464A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="2286000"/>
+          <a:ext cx="2190750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Red</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Pitaya + Ultrasonic Sensor</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>342087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D13A9D-8422-31B4-FEE3-F7559F0E4074}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9201150" y="323850"/>
+          <a:ext cx="6504762" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>408762</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2D8A2E-39DC-D244-FA26-C808BBCF94DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267825" y="4191000"/>
+          <a:ext cx="6504762" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>408762</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B5055A-31FF-FB8F-FE74-EC98374DF5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267825" y="7620000"/>
+          <a:ext cx="6504762" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>283510</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6A03C8-EA07-43D6-BC95-295A16E4F255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId4" r:lo="rId5" r:qs="rId6" r:cs="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -27157,11 +32668,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA10C1C1-5549-4BC5-B5D8-A134BF60DD89}">
+  <dimension ref="C3:AC20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y45" sqref="Y45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="3:29">
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="3:29">
+      <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="16" spans="3:29">
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29">
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="3:29">
+      <c r="AC20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1D7E30-530D-4C7A-BA0E-137DB41EF95C}">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M135" sqref="M135"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27174,37 +32739,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="X3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="4"/>
+      <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U7" t="s">
@@ -27213,22 +32778,22 @@
     </row>
     <row r="42" spans="24:24">
       <c r="X42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="24:24">
       <c r="X84" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -27238,7 +32803,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE7051-9A5F-4587-8603-801D382CC0FE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EEA08E-47F8-4E3C-85C9-C71B57B8C799}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -27256,102 +32835,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
+      <c r="A1" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>53</v>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="4" t="s">
-        <v>54</v>
+      <c r="A6" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="45">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>55</v>
+      <c r="B9" s="8" t="s">
+        <v>52</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>61</v>
+      <c r="C9" s="9" t="s">
+        <v>58</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>57</v>
+      <c r="D9" s="9" t="s">
+        <v>54</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="13" spans="1:15">
       <c r="N13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="N14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="12:14">
       <c r="M18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="12:14">
       <c r="L19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>64</v>
+      <c r="M19" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="N19">
         <v>10</v>
@@ -27363,19 +32942,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E79AB-3905-4B03-AA0A-D79715D3E696}">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI91" sqref="BI91"/>
+    <sheetView showGridLines="0" topLeftCell="F97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF103" sqref="AF103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:55">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
+      <c r="A1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:55">
@@ -27394,18 +32973,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE7E135-2CC5-4344-8F2D-172EBE71202B}">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A156" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V175" sqref="V175"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L143" sqref="L143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -27419,97 +32998,97 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.25">
-      <c r="A7" s="7" t="s">
-        <v>28</v>
+      <c r="A7" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="21">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="4" t="s">
+    <row r="32" spans="1:2">
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="21">
-      <c r="A30" s="6" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="4" t="s">
+    <row r="75" spans="1:2" ht="18.75">
+      <c r="A75" s="7" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="18.75">
-      <c r="A75" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="7:20" ht="21">
+      <c r="T115" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="7:20">
+      <c r="G116" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="7:20" ht="21">
-      <c r="T115" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" spans="7:20">
-      <c r="G116" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="127" spans="7:20">
-      <c r="G127" s="4" t="s">
-        <v>41</v>
+      <c r="G127" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="7:7">
-      <c r="G134" s="4" t="s">
+      <c r="G134" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="4" t="s">
-        <v>67</v>
+      <c r="A159" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -27519,82 +33098,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA44C6-5B68-4D48-BABC-D7EE34EF441E}">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView showGridLines="0" topLeftCell="B56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="T11" t="s">
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="H2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75">
+      <c r="H10" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21">
+      <c r="F11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" ht="23.25">
+      <c r="H21" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="22:29" ht="49.5">
+      <c r="V33" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="22:29" ht="59.25">
+      <c r="X34" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="22:29" ht="18.75">
+      <c r="W35" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="22:29" ht="18.75">
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="I12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="G13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:20">
-      <c r="F17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="6:20">
-      <c r="T22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="6:20">
-      <c r="I23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="9:14">
-      <c r="I33">
-        <v>203.3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="9:14">
-      <c r="J38" s="1"/>
-      <c r="K38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="9:14">
-      <c r="I44">
+    <row r="43" spans="22:29">
+      <c r="X43">
         <f>203.3 - 77.8</f>
         <v>125.50000000000001</v>
       </c>
     </row>
-    <row r="46" spans="9:14">
-      <c r="N46" t="s">
-        <v>20</v>
+    <row r="45" spans="22:29">
+      <c r="AC45" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="49" spans="10:10">
-      <c r="J49" s="1" t="s">
-        <v>21</v>
+    <row r="48" spans="22:29">
+      <c r="Y48" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -27602,4 +33185,25 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D47AEC9-87FB-43A8-8E6A-12BFE902B992}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="5" width="3.7109375" customWidth="1"/>
+    <col min="9" max="13" width="3.7109375" customWidth="1"/>
+    <col min="18" max="19" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>